--- a/biology/Botanique/Campylospermum/Campylospermum.xlsx
+++ b/biology/Botanique/Campylospermum/Campylospermum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campylospermum Tiegh. est un genre de plantes à fleurs de la famille des Ochnaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (10 décembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (10 décembre 2017) :
 Campylospermum amplectens (Stapf) Farron
 Campylospermum anceps (Baker) H. Perrier
 Campylospermum andongensis (Hiern) Biss.
@@ -576,7 +590,7 @@
 Campylospermum vogelii (Hook. fil.) Farron
 Campylospermum warneckei (Gilg ex Engl.) Biss.
 Campylospermum zenkeri (van Tiegh.) Farron
-Selon NCBI  (10 décembre 2017)[3] :
+Selon NCBI  (10 décembre 2017) :
 Campylospermum amplectens
 Campylospermum anceps
 Campylospermum auriculatum
@@ -614,7 +628,7 @@
 Campylospermum umbricola
 Campylospermum vogelii
 Campylospermum warneckei
-Selon The Plant List            (10 décembre 2017)[4] :
+Selon The Plant List            (10 décembre 2017) :
 Campylospermum angustifolium Tiegh.
 Campylospermum bracteatum Farron
 Campylospermum cupreum Farro
@@ -630,7 +644,7 @@
 Campylospermum reticulatum Tiegh.
 Campylospermum striatum (Tiegh.) M.C.E.Amaral
 Campylospermum sulcatum Farr
-Selon Tropicos                                           (10 décembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (10 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Campylospermum abbreviatum Tiegh.
 Campylospermum affine (Hook. f.) Tiegh.
 Campylospermum amplectens (Stapf) Farron
